--- a/week6/Region.xlsx
+++ b/week6/Region.xlsx
@@ -24,33 +24,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Region</t>
+    <t>Language</t>
   </si>
   <si>
-    <t>Barishal</t>
+    <t>English</t>
   </si>
   <si>
-    <t>Chattogram</t>
-  </si>
-  <si>
-    <t>Dhaka</t>
-  </si>
-  <si>
-    <t>Khulna</t>
-  </si>
-  <si>
-    <t>Mymensingh</t>
-  </si>
-  <si>
-    <t>Rajshahi</t>
-  </si>
-  <si>
-    <t>Rangpur</t>
-  </si>
-  <si>
-    <t>Sylhet</t>
+    <t>Bangla</t>
   </si>
 </sst>
 </file>
@@ -377,9 +359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -401,35 +381,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
